--- a/src/main/resources/excel/1 There.xlsx
+++ b/src/main/resources/excel/1 There.xlsx
@@ -1589,7 +1589,7 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="44.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="48.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="57.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="57.01"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1599,7 +1599,7 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1610,7 +1610,7 @@
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1621,7 +1621,7 @@
       <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="1" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1632,7 +1632,7 @@
       <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1643,7 +1643,7 @@
       <c r="B5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" s="1" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1654,7 +1654,7 @@
       <c r="B6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" s="1" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1665,7 +1665,7 @@
       <c r="B7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" s="1" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1676,7 +1676,7 @@
       <c r="B8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" s="1" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1687,7 +1687,7 @@
       <c r="B9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" s="1" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1698,7 +1698,7 @@
       <c r="B10" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="D10" s="1" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1709,7 +1709,7 @@
       <c r="B11" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D11" s="1" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1720,7 +1720,7 @@
       <c r="B12" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="D12" s="1" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1731,7 +1731,7 @@
       <c r="B13" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="D13" s="1" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1742,7 +1742,7 @@
       <c r="B14" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D14" s="0" t="s">
+      <c r="D14" s="1" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1753,7 +1753,7 @@
       <c r="B15" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D15" s="0" t="s">
+      <c r="D15" s="1" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1782,7 +1782,7 @@
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="57.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="48.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="65.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="27.03"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="56.88"/>
   </cols>
@@ -1978,7 +1978,7 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="45.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="44.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="54.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="54.46"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1988,7 +1988,7 @@
       <c r="B1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1999,7 +1999,7 @@
       <c r="B2" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2010,7 +2010,7 @@
       <c r="B3" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="1" t="s">
         <v>53</v>
       </c>
     </row>
@@ -2021,7 +2021,7 @@
       <c r="B4" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" s="1" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2032,7 +2032,7 @@
       <c r="B5" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" s="1" t="s">
         <v>59</v>
       </c>
     </row>
@@ -2043,7 +2043,7 @@
       <c r="B6" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" s="1" t="s">
         <v>62</v>
       </c>
     </row>
@@ -2054,7 +2054,7 @@
       <c r="B7" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" s="1" t="s">
         <v>65</v>
       </c>
     </row>
@@ -2065,7 +2065,7 @@
       <c r="B8" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" s="1" t="s">
         <v>68</v>
       </c>
     </row>
@@ -2076,7 +2076,7 @@
       <c r="B9" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" s="1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -2087,7 +2087,7 @@
       <c r="B10" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="D10" s="1" t="s">
         <v>74</v>
       </c>
     </row>
@@ -2098,7 +2098,7 @@
       <c r="B11" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D11" s="1" t="s">
         <v>77</v>
       </c>
     </row>
@@ -2109,7 +2109,7 @@
       <c r="B12" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="D12" s="1" t="s">
         <v>80</v>
       </c>
     </row>
@@ -2120,7 +2120,7 @@
       <c r="B13" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="D13" s="1" t="s">
         <v>83</v>
       </c>
     </row>
@@ -2131,7 +2131,7 @@
       <c r="B14" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D14" s="0" t="s">
+      <c r="D14" s="1" t="s">
         <v>86</v>
       </c>
     </row>
@@ -2142,7 +2142,7 @@
       <c r="B15" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D15" s="0" t="s">
+      <c r="D15" s="1" t="s">
         <v>89</v>
       </c>
     </row>
@@ -2172,7 +2172,7 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="44.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="75.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="75.32"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2182,7 +2182,7 @@
       <c r="B1" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>92</v>
       </c>
     </row>
@@ -2193,7 +2193,7 @@
       <c r="B2" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>95</v>
       </c>
     </row>
@@ -2204,7 +2204,7 @@
       <c r="B3" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="1" t="s">
         <v>98</v>
       </c>
     </row>
@@ -2215,7 +2215,7 @@
       <c r="B4" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" s="1" t="s">
         <v>101</v>
       </c>
     </row>
@@ -2226,7 +2226,7 @@
       <c r="B5" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" s="1" t="s">
         <v>104</v>
       </c>
     </row>
@@ -2237,7 +2237,7 @@
       <c r="B6" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" s="1" t="s">
         <v>107</v>
       </c>
     </row>
@@ -2248,7 +2248,7 @@
       <c r="B7" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" s="1" t="s">
         <v>110</v>
       </c>
     </row>
@@ -2259,7 +2259,7 @@
       <c r="B8" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" s="1" t="s">
         <v>113</v>
       </c>
     </row>
@@ -2270,7 +2270,7 @@
       <c r="B9" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" s="1" t="s">
         <v>116</v>
       </c>
     </row>
@@ -2281,7 +2281,7 @@
       <c r="B10" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="D10" s="1" t="s">
         <v>119</v>
       </c>
     </row>
@@ -2292,7 +2292,7 @@
       <c r="B11" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D11" s="1" t="s">
         <v>122</v>
       </c>
     </row>
@@ -2303,7 +2303,7 @@
       <c r="B12" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="D12" s="1" t="s">
         <v>125</v>
       </c>
     </row>
@@ -2314,7 +2314,7 @@
       <c r="B13" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="D13" s="1" t="s">
         <v>128</v>
       </c>
     </row>
@@ -2325,7 +2325,7 @@
       <c r="B14" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="D14" s="0" t="s">
+      <c r="D14" s="1" t="s">
         <v>131</v>
       </c>
     </row>
@@ -2336,7 +2336,7 @@
       <c r="B15" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="D15" s="0" t="s">
+      <c r="D15" s="1" t="s">
         <v>134</v>
       </c>
     </row>
@@ -2365,18 +2365,18 @@
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="57.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="61.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="69.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="61.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="69.02"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>137</v>
       </c>
     </row>
@@ -2384,10 +2384,10 @@
       <c r="A2" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>140</v>
       </c>
     </row>
@@ -2395,10 +2395,10 @@
       <c r="A3" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="1" t="s">
         <v>143</v>
       </c>
     </row>
@@ -2406,10 +2406,10 @@
       <c r="A4" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" s="1" t="s">
         <v>146</v>
       </c>
     </row>
@@ -2417,10 +2417,10 @@
       <c r="A5" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" s="1" t="s">
         <v>149</v>
       </c>
     </row>
@@ -2428,10 +2428,10 @@
       <c r="A6" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" s="1" t="s">
         <v>152</v>
       </c>
     </row>
@@ -2439,10 +2439,10 @@
       <c r="A7" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" s="1" t="s">
         <v>155</v>
       </c>
     </row>
@@ -2450,10 +2450,10 @@
       <c r="A8" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" s="1" t="s">
         <v>158</v>
       </c>
     </row>
@@ -2461,10 +2461,10 @@
       <c r="A9" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" s="1" t="s">
         <v>161</v>
       </c>
     </row>
@@ -2472,10 +2472,10 @@
       <c r="A10" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="D10" s="1" t="s">
         <v>164</v>
       </c>
     </row>
@@ -2483,10 +2483,10 @@
       <c r="A11" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D11" s="1" t="s">
         <v>167</v>
       </c>
     </row>
@@ -2494,10 +2494,10 @@
       <c r="A12" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="D12" s="1" t="s">
         <v>170</v>
       </c>
     </row>
@@ -2505,10 +2505,10 @@
       <c r="A13" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="D13" s="1" t="s">
         <v>173</v>
       </c>
     </row>
@@ -2516,10 +2516,10 @@
       <c r="A14" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="D14" s="0" t="s">
+      <c r="D14" s="1" t="s">
         <v>176</v>
       </c>
     </row>
@@ -2527,10 +2527,10 @@
       <c r="A15" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D15" s="0" t="s">
+      <c r="D15" s="1" t="s">
         <v>179</v>
       </c>
     </row>
@@ -2560,7 +2560,7 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="51.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="71.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="66.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="66.22"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2570,7 +2570,7 @@
       <c r="B1" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>182</v>
       </c>
     </row>
@@ -2581,7 +2581,7 @@
       <c r="B2" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>185</v>
       </c>
     </row>
@@ -2592,7 +2592,7 @@
       <c r="B3" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="1" t="s">
         <v>188</v>
       </c>
     </row>
@@ -2603,7 +2603,7 @@
       <c r="B4" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" s="1" t="s">
         <v>191</v>
       </c>
     </row>
@@ -2614,7 +2614,7 @@
       <c r="B5" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" s="1" t="s">
         <v>194</v>
       </c>
     </row>
@@ -2625,7 +2625,7 @@
       <c r="B6" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" s="1" t="s">
         <v>197</v>
       </c>
     </row>
@@ -2636,7 +2636,7 @@
       <c r="B7" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" s="1" t="s">
         <v>200</v>
       </c>
     </row>
@@ -2647,7 +2647,7 @@
       <c r="B8" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" s="1" t="s">
         <v>203</v>
       </c>
     </row>
@@ -2658,7 +2658,7 @@
       <c r="B9" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" s="1" t="s">
         <v>206</v>
       </c>
     </row>
@@ -2669,7 +2669,7 @@
       <c r="B10" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="D10" s="1" t="s">
         <v>209</v>
       </c>
     </row>
@@ -2680,7 +2680,7 @@
       <c r="B11" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D11" s="1" t="s">
         <v>212</v>
       </c>
     </row>
@@ -2691,7 +2691,7 @@
       <c r="B12" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="D12" s="1" t="s">
         <v>215</v>
       </c>
     </row>
@@ -2702,7 +2702,7 @@
       <c r="B13" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="D13" s="1" t="s">
         <v>218</v>
       </c>
     </row>
@@ -2713,7 +2713,7 @@
       <c r="B14" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="D14" s="0" t="s">
+      <c r="D14" s="1" t="s">
         <v>221</v>
       </c>
     </row>
@@ -2724,7 +2724,7 @@
       <c r="B15" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="D15" s="0" t="s">
+      <c r="D15" s="1" t="s">
         <v>224</v>
       </c>
     </row>
@@ -2753,18 +2753,18 @@
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="40.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="55.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="61.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="55.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="61.38"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>227</v>
       </c>
     </row>
@@ -2772,10 +2772,10 @@
       <c r="A2" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>230</v>
       </c>
     </row>
@@ -2783,10 +2783,10 @@
       <c r="A3" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="1" t="s">
         <v>233</v>
       </c>
     </row>
@@ -2794,10 +2794,10 @@
       <c r="A4" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" s="1" t="s">
         <v>236</v>
       </c>
     </row>
@@ -2805,10 +2805,10 @@
       <c r="A5" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" s="1" t="s">
         <v>239</v>
       </c>
     </row>
@@ -2816,10 +2816,10 @@
       <c r="A6" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" s="1" t="s">
         <v>242</v>
       </c>
     </row>
@@ -2827,10 +2827,10 @@
       <c r="A7" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" s="1" t="s">
         <v>245</v>
       </c>
     </row>
@@ -2838,10 +2838,10 @@
       <c r="A8" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" s="1" t="s">
         <v>248</v>
       </c>
     </row>
@@ -2849,10 +2849,10 @@
       <c r="A9" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" s="1" t="s">
         <v>251</v>
       </c>
     </row>
@@ -2860,10 +2860,10 @@
       <c r="A10" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="D10" s="1" t="s">
         <v>254</v>
       </c>
     </row>
@@ -2871,10 +2871,10 @@
       <c r="A11" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D11" s="1" t="s">
         <v>257</v>
       </c>
     </row>
@@ -2882,10 +2882,10 @@
       <c r="A12" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="D12" s="1" t="s">
         <v>260</v>
       </c>
     </row>
@@ -2893,10 +2893,10 @@
       <c r="A13" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="D13" s="1" t="s">
         <v>263</v>
       </c>
     </row>
@@ -2904,10 +2904,10 @@
       <c r="A14" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="D14" s="0" t="s">
+      <c r="D14" s="1" t="s">
         <v>266</v>
       </c>
     </row>
@@ -2915,10 +2915,10 @@
       <c r="A15" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="D15" s="0" t="s">
+      <c r="D15" s="1" t="s">
         <v>269</v>
       </c>
     </row>
@@ -2947,18 +2947,18 @@
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="47.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="57.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="69.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="57.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="69.99"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>272</v>
       </c>
     </row>
@@ -2966,10 +2966,10 @@
       <c r="A2" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>275</v>
       </c>
     </row>
@@ -2977,10 +2977,10 @@
       <c r="A3" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="1" t="s">
         <v>278</v>
       </c>
     </row>
@@ -2988,10 +2988,10 @@
       <c r="A4" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" s="1" t="s">
         <v>281</v>
       </c>
     </row>
@@ -2999,10 +2999,10 @@
       <c r="A5" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" s="1" t="s">
         <v>284</v>
       </c>
     </row>
@@ -3010,10 +3010,10 @@
       <c r="A6" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" s="1" t="s">
         <v>287</v>
       </c>
     </row>
@@ -3021,10 +3021,10 @@
       <c r="A7" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" s="1" t="s">
         <v>290</v>
       </c>
     </row>
@@ -3032,10 +3032,10 @@
       <c r="A8" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" s="1" t="s">
         <v>293</v>
       </c>
     </row>
@@ -3043,10 +3043,10 @@
       <c r="A9" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" s="1" t="s">
         <v>296</v>
       </c>
     </row>
@@ -3054,10 +3054,10 @@
       <c r="A10" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="D10" s="1" t="s">
         <v>299</v>
       </c>
     </row>
@@ -3065,10 +3065,10 @@
       <c r="A11" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D11" s="1" t="s">
         <v>302</v>
       </c>
     </row>
@@ -3076,10 +3076,10 @@
       <c r="A12" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="D12" s="1" t="s">
         <v>305</v>
       </c>
     </row>
@@ -3087,10 +3087,10 @@
       <c r="A13" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="D13" s="1" t="s">
         <v>308</v>
       </c>
     </row>
@@ -3098,10 +3098,10 @@
       <c r="A14" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="D14" s="0" t="s">
+      <c r="D14" s="1" t="s">
         <v>311</v>
       </c>
     </row>
@@ -3109,10 +3109,10 @@
       <c r="A15" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="D15" s="0" t="s">
+      <c r="D15" s="1" t="s">
         <v>314</v>
       </c>
     </row>
@@ -3142,7 +3142,7 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="50.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="59.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="78.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="78.84"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3152,7 +3152,7 @@
       <c r="B1" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>215</v>
       </c>
     </row>
@@ -3163,7 +3163,7 @@
       <c r="B2" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>318</v>
       </c>
     </row>
@@ -3174,7 +3174,7 @@
       <c r="B3" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="1" t="s">
         <v>321</v>
       </c>
     </row>
@@ -3185,7 +3185,7 @@
       <c r="B4" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" s="1" t="s">
         <v>324</v>
       </c>
     </row>
@@ -3196,7 +3196,7 @@
       <c r="B5" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" s="1" t="s">
         <v>327</v>
       </c>
     </row>
@@ -3207,7 +3207,7 @@
       <c r="B6" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" s="1" t="s">
         <v>330</v>
       </c>
     </row>
@@ -3218,7 +3218,7 @@
       <c r="B7" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" s="1" t="s">
         <v>333</v>
       </c>
     </row>
@@ -3229,7 +3229,7 @@
       <c r="B8" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" s="1" t="s">
         <v>336</v>
       </c>
     </row>
@@ -3240,7 +3240,7 @@
       <c r="B9" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" s="1" t="s">
         <v>339</v>
       </c>
     </row>
@@ -3251,7 +3251,7 @@
       <c r="B10" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="D10" s="1" t="s">
         <v>342</v>
       </c>
     </row>
@@ -3262,7 +3262,7 @@
       <c r="B11" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D11" s="1" t="s">
         <v>345</v>
       </c>
     </row>
@@ -3273,7 +3273,7 @@
       <c r="B12" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="D12" s="1" t="s">
         <v>348</v>
       </c>
     </row>
@@ -3284,7 +3284,7 @@
       <c r="B13" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="D13" s="1" t="s">
         <v>351</v>
       </c>
     </row>
@@ -3295,7 +3295,7 @@
       <c r="B14" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="D14" s="0" t="s">
+      <c r="D14" s="1" t="s">
         <v>354</v>
       </c>
     </row>
@@ -3306,7 +3306,7 @@
       <c r="B15" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="D15" s="0" t="s">
+      <c r="D15" s="1" t="s">
         <v>357</v>
       </c>
     </row>
@@ -3335,18 +3335,18 @@
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="70.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="66.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="70.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="66.35"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>360</v>
       </c>
     </row>
@@ -3354,10 +3354,10 @@
       <c r="A2" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>363</v>
       </c>
     </row>
@@ -3365,10 +3365,10 @@
       <c r="A3" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="1" t="s">
         <v>366</v>
       </c>
     </row>
@@ -3376,10 +3376,10 @@
       <c r="A4" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" s="1" t="s">
         <v>369</v>
       </c>
     </row>
@@ -3387,10 +3387,10 @@
       <c r="A5" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" s="1" t="s">
         <v>372</v>
       </c>
     </row>
@@ -3398,10 +3398,10 @@
       <c r="A6" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" s="1" t="s">
         <v>375</v>
       </c>
     </row>
@@ -3409,10 +3409,10 @@
       <c r="A7" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" s="1" t="s">
         <v>378</v>
       </c>
     </row>
@@ -3420,10 +3420,10 @@
       <c r="A8" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" s="1" t="s">
         <v>381</v>
       </c>
     </row>
@@ -3431,10 +3431,10 @@
       <c r="A9" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" s="1" t="s">
         <v>384</v>
       </c>
     </row>
@@ -3442,10 +3442,10 @@
       <c r="A10" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="D10" s="1" t="s">
         <v>387</v>
       </c>
     </row>
@@ -3453,10 +3453,10 @@
       <c r="A11" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D11" s="1" t="s">
         <v>390</v>
       </c>
     </row>
@@ -3464,10 +3464,10 @@
       <c r="A12" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="D12" s="1" t="s">
         <v>393</v>
       </c>
     </row>
@@ -3475,10 +3475,10 @@
       <c r="A13" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="D13" s="1" t="s">
         <v>396</v>
       </c>
     </row>
@@ -3486,10 +3486,10 @@
       <c r="A14" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="D14" s="0" t="s">
+      <c r="D14" s="1" t="s">
         <v>399</v>
       </c>
     </row>
@@ -3497,10 +3497,10 @@
       <c r="A15" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="D15" s="0" t="s">
+      <c r="D15" s="1" t="s">
         <v>402</v>
       </c>
     </row>

--- a/src/main/resources/excel/1 There.xlsx
+++ b/src/main/resources/excel/1 There.xlsx
@@ -5,19 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="1 There is" sheetId="1" state="visible" r:id="rId3"/>
-    <sheet name="2 There are" sheetId="2" state="visible" r:id="rId4"/>
-    <sheet name="3 There is some" sheetId="3" state="visible" r:id="rId5"/>
-    <sheet name="4 There isn't" sheetId="4" state="visible" r:id="rId6"/>
-    <sheet name="5 There aren't" sheetId="5" state="visible" r:id="rId7"/>
-    <sheet name="6 Is there" sheetId="6" state="visible" r:id="rId8"/>
-    <sheet name="7 Are there" sheetId="7" state="visible" r:id="rId9"/>
-    <sheet name="8 Aren't there" sheetId="8" state="visible" r:id="rId10"/>
-    <sheet name="9 There'll be" sheetId="9" state="visible" r:id="rId11"/>
-    <sheet name="10 There's going to be" sheetId="10" state="visible" r:id="rId12"/>
+    <sheet name="1 There" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="2 There" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="3 There" sheetId="3" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -29,7 +22,19 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="448">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="951" uniqueCount="711">
+  <si>
+    <t xml:space="preserve">There is</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ðɛr ɪz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EXAMPLE</t>
+  </si>
   <si>
     <t xml:space="preserve">There is a cat in the tree</t>
   </si>
@@ -166,6 +171,12 @@
     <t xml:space="preserve">ðɛr ɪz ə sɛns ʌv ɪkˈsaɪtmənt ɪn ði ɛr</t>
   </si>
   <si>
+    <t xml:space="preserve">There are</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ðɛr ɑr</t>
+  </si>
+  <si>
     <t xml:space="preserve">There are five apples on the table</t>
   </si>
   <si>
@@ -301,6 +312,15 @@
     <t xml:space="preserve">ðɛr ɑr ˈmɛni stɑrz ɪn ðə naɪt skaɪ</t>
   </si>
   <si>
+    <t xml:space="preserve">There is some</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hay un poco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ðɛr ɪz sʌm</t>
+  </si>
+  <si>
     <t xml:space="preserve">There is some milk in the refrigerator</t>
   </si>
   <si>
@@ -436,6 +456,15 @@
     <t xml:space="preserve">ðɛr ɪz sʌm fud lɛft ɪn ðə ˈpæntri</t>
   </si>
   <si>
+    <t xml:space="preserve">There isn't</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No hay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ðɛr ˈɪzənt</t>
+  </si>
+  <si>
     <t xml:space="preserve">There isn't enough time to complete the project</t>
   </si>
   <si>
@@ -571,6 +600,12 @@
     <t xml:space="preserve">ðɛr ˈɪzənt ˈɛni sɛl foʊn rɪˈsɛpʃən ɪn ðɪs rɪˈmoʊt ˈɛriə</t>
   </si>
   <si>
+    <t xml:space="preserve">There aren't</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ðɛr ˈɑrənt</t>
+  </si>
+  <si>
     <t xml:space="preserve">There aren't any apples in the fridge</t>
   </si>
   <si>
@@ -706,6 +741,12 @@
     <t xml:space="preserve">ðɛr ˈɑrənt ˈmɛni ˈtʊrəsts ɪn ðɪs ˈsɪti ˈdʊrɪŋ ðə ˈwɪntər</t>
   </si>
   <si>
+    <t xml:space="preserve">Is there</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ɪz ðɛr</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is there a coffee shop nearby?</t>
   </si>
   <si>
@@ -841,6 +882,15 @@
     <t xml:space="preserve">ɪz ðɛr ˈɛniˌθɪŋ aɪ kæn du tu hɛlp ju?</t>
   </si>
   <si>
+    <t xml:space="preserve">Are there</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Hay?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ɑr ðɛr?</t>
+  </si>
+  <si>
     <t xml:space="preserve">Are there any apples in the fridge?</t>
   </si>
   <si>
@@ -976,6 +1026,9 @@
     <t xml:space="preserve">ɑr ðɛr ˈɛni ˈɡaɪˌdlaɪnz fɔr səbˈmɪtɪŋ ðə rɪˈpɔrt?</t>
   </si>
   <si>
+    <t xml:space="preserve">No quedan</t>
+  </si>
+  <si>
     <t xml:space="preserve">No quedan galletas en el frasco.</t>
   </si>
   <si>
@@ -1105,6 +1158,15 @@
     <t xml:space="preserve">ðɛr ˈɑrənt ˈɛni klaʊdz ɪn ðə skaɪ təˈdeɪ, ɪts ə ˈbjutəfəl deɪ</t>
   </si>
   <si>
+    <t xml:space="preserve">There'll be</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Habrá</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ˈðɛrəl</t>
+  </si>
+  <si>
     <t xml:space="preserve">There'll be a party at my house tomorrow night</t>
   </si>
   <si>
@@ -1240,6 +1302,15 @@
     <t xml:space="preserve">ˈðɛrəl bi ə dɪˈlɪvəri ʌv nu bʊks æt ðə ˈlaɪˌbrɛri nɛkst wik</t>
   </si>
   <si>
+    <t xml:space="preserve">There's going to be</t>
+  </si>
+  <si>
+    <t xml:space="preserve">habrá</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ðɛrz ˈɡoʊɪŋ tu bi</t>
+  </si>
+  <si>
     <t xml:space="preserve">There's going to be a party at my house tonight</t>
   </si>
   <si>
@@ -1373,6 +1444,717 @@
   </si>
   <si>
     <t xml:space="preserve">ðɛrz ˈɡoʊɪŋ tu bi ə sərˈpraɪz ɡɛst æt ðə ˈpɑrti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There should be</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Debería haber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ðɛr ʃʊd bi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There should be more recycling bins in the city to reduce waste</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Debería haber más contenedores de reciclaje en la ciudad para reducir los residuos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ðɛr ʃʊd bi mɔr riˈsaɪkəlɪŋ bɪnz ɪn ðə ˈsɪti tu rəˈdus weɪst</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There should be a limit on the amount of sugar in children's snacks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Debería haber un límite en la cantidad de azúcar en los snacks de los niños</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ðɛr ʃʊd bi ə ˈlɪmət ɑn ði əˈmaʊnt ʌv ˈʃʊɡər ɪn ˈʧɪldrənz snæks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There should be stricter regulations on air pollution from factories</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Debería haber regulaciones más estrictas sobre la contaminación del aire proveniente de las fábricas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ðɛr ʃʊd bi ˈstrɪktər ˌrɛɡjəˈleɪʃənz ɑn ɛr pəˈluʃən frʌm ˈfæktəriz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There should be better public transportation options in rural areas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Debería haber mejores opciones de transporte público en las zonas rurales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ðɛr ʃʊd bi ˈbɛtər ˈpʌblɪk ˌtrænspərˈteɪʃən ˈɑpʃənz ɪn ˈrʊrəl ˈɛriəz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There should be more affordable housing options for low-income families</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Debería haber más opciones de vivienda asequible para familias de bajos ingresos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ðɛr ʃʊd bi mɔr əˈfɔrdəbəl ˈhaʊzɪŋ ˈɑpʃənz fɔr loʊ-ˈɪnˌkʌm ˈfæməliz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There should be mandatory vaccinations for certain contagious diseases</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Debería haber vacunas obligatorias para determinadas enfermedades contagiosas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ðɛr ʃʊd bi ˈmændəˌtɔri ˌvæksəˈneɪʃənz fɔr ˈsɜrtən kənˈteɪʤəs dɪˈzizəz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There should be more funding for public schools to improve education</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Debería haber más financiación para que las escuelas públicas mejoren la educación</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ðɛr ʃʊd bi mɔr ˈfʌndɪŋ fɔr ˈpʌblɪk skulz tu ɪmˈpruv ˌɛʤəˈkeɪʃən</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There should be a greater emphasis on renewable energy sources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Debería haber un mayor énfasis en las fuentes de energía renovables</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ðɛr ʃʊd bi ə ˈɡreɪtər ˈɛmfəsəs ɑn riˈnuəbəl ˈɛnərʤi ˈsɔrsəz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There should be a ban on single-use plastic bags</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Debería prohibirse las bolsas de plástico de un solo uso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ðɛr ʃʊd bi ə bæn ɑn ˈsɪŋɡəl-juz ˈplæstɪk bæɡz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There should be more support for mental health services in the community</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Debería haber más apoyo a los servicios de salud mental en la comunidad.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ðɛr ʃʊd bi mɔr səˈpɔrt fɔr ˈmɛntəl hɛlθ ˈsɜrvəsəz ɪn ðə kəmˈjunəti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There should be a minimum wage increase to help low-wage workers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Debería haber un aumento del salario mínimo para ayudar a los trabajadores con salarios bajos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ðɛr ʃʊd bi ə ˈmɪnəməm weɪʤ ˈɪnˌkris tu hɛlp loʊ-weɪʤ ˈwɜrkərz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There should be a more comprehensive healthcare system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Debería haber un sistema sanitario más completo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ðɛr ʃʊd bi ə mɔr ˌkɑmpriˈhɛnsɪv ˈhɛlθˌkɛr ˈsɪstəm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There should be stronger penalties for texting while driving</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Debería haber sanciones más severas por enviar mensajes de texto mientras se conduce</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ðɛr ʃʊd bi ˈstrɔŋər ˈpɛnəltiz fɔr ˈtɛkˌstɪŋ waɪl ˈdraɪvɪŋ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There should be better access to clean drinking water in developing countries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Debería haber un mejor acceso al agua potable en los países en desarrollo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ðɛr ʃʊd bi ˈbɛtər ˈækˌsɛs tu klin ˈdrɪŋkɪŋ ˈwɔtər ɪn dɪˈvɛləpɪŋ ˈkʌntriz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There should be stricter regulations on the use of pesticides in agriculture</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Debería haber regulaciones más estrictas sobre el uso de pesticidas en la agricultura</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ðɛr ʃʊd bi ˈstrɪktər ˌrɛɡjəˈleɪʃənz ɑn ðə jus ʌv ˈpɛstəˌsaɪdz ɪn ˈæɡrɪˌkʌlʧər</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There should've been</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ðɛr ˈʃʊdəv bɪn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There should've been more warning signs on the road</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Debería haber más señales de advertencia en la carretera.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ðɛr ˈʃʊdəv bɪn mɔr ˈwɔrnɪŋ saɪnz ɑn ðə roʊd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There should've been enough food for everyone at the party</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Debería haber suficiente comida para todos en la fiesta.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ðɛr ˈʃʊdəv bɪn ɪˈnʌf fud fɔr ˈɛvriˌwʌn æt ðə ˈpɑrti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There should've been a backup plan in case of rain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Debería haber habido un plan de respaldo en caso de lluvia.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ðɛr ˈʃʊdəv bɪn ə ˈbæˌkʌp plæn ɪn keɪs ʌv reɪn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There should've been better communication between the team members</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Debería haber habido una mejor comunicación entre los miembros del equipo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ðɛr ˈʃʊdəv bɪn ˈbɛtər kəmˌjunəˈkeɪʃən bɪˈtwin ðə tim ˈmɛmbərz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There should've been stricter security measures in place</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Debería haber habido medidas de seguridad más estrictas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ðɛr ˈʃʊdəv bɪn ˈstrɪktər sɪˈkjʊrəti ˈmɛʒərz ɪn pleɪs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There should've been more time allocated for the presentation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Debería haberse asignado más tiempo a la presentación.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ðɛr ˈʃʊdəv bɪn mɔr taɪm ˈæləˌkeɪtɪd fɔr ðə ˌprɛzənˈteɪʃən</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There should've been a doctor on call for emergencies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Debería haber un médico de guardia para emergencias.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ðɛr ˈʃʊdəv bɪn ə ˈdɑktər ɑn kɔl fɔr ɪˈmɜrʤənsiz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There should've been more opportunities for skill development</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Debería haber habido más oportunidades para el desarrollo de habilidades.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ðɛr ˈʃʊdəv bɪn mɔr ˌɑpərˈtunətiz fɔr skɪl dɪˈvɛləpmənt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There should've been greater transparency in the decision-making process</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Debería haber habido mayor transparencia en el proceso de toma de decisiones.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ðɛr ˈʃʊdəv bɪn ˈɡreɪtər trænˈspɛrənsi ɪn ðə dɪˈsɪʒən-ˈmeɪkɪŋ ˈprɑˌsɛs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There should've been a designated driver for the evening</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Debería haber habido un conductor designado para la noche.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ðɛr ˈʃʊdəv bɪn ə ˈdɛzɪɡˌneɪtɪd ˈdraɪvər fɔr ði ˈivnɪŋ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There should've been clearer instructions for assembly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Debería haber habido instrucciones más claras para el montaje.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ðɛr ˈʃʊdəv bɪn ˈklɪrər ɪnˈstrʌkʃənz fɔr əˈsɛmbli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There should've been a stronger focus on customer satisfaction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Debería haber habido un mayor enfoque en la satisfacción del cliente.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ðɛr ˈʃʊdəv bɪn ə ˈstrɔŋər ˈfoʊkəs ɑn ˈkʌstəmər ˌsætəˈsfækʃən</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There should've been a contingency fund for unexpected expenses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Debería haber habido un fondo de contingencia para gastos inesperados.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ðɛr ˈʃʊdəv bɪn ə kənˈtɪnʤənsi fʌnd fɔr ˌʌnɪkˈspɛktɪd ɪkˈspɛnsəz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There should've been more empathy and understanding in the conversation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Debería haber habido más empatía y comprensión en la conversación.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ðɛr ˈʃʊdəv bɪn mɔr ˈɛmpəθi ænd ˌʌndərˈstændɪŋ ɪn ðə ˌkɑnvərˈseɪʃən</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There should've been a comprehensive review of the project before implementation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Debería haber habido una revisión exhaustiva del proyecto antes de su implementación.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ðɛr ˈʃʊdəv bɪn ə ˌkɑmpriˈhɛnsɪv ˌriˈvju ʌv ðə ˈprɑʤɛkt bɪˈfɔr ˌɪmpləmɛnˈteɪʃən</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There appears to be</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parece haber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ðɛr əˈpɪrz tu bi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There appears to be a problem with the computer's operating system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parece haber un problema con el sistema operativo de la computadora.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ðɛr əˈpɪrz tu bi ə ˈprɑbləm wɪð ðə kəmˈpjutərz ˈɑpəˌreɪtɪŋ ˈsɪstəm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There appears to be a misunderstanding between the two parties</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parece haber un malentendido entre las dos partes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ðɛr əˈpɪrz tu bi ə ˌmɪsəndərˈstændɪŋ bɪˈtwin ðə tu ˈpɑrtiz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There appears to be a shortage of fresh vegetables at the grocery store</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parece haber escasez de verduras frescas en el supermercado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ðɛr əˈpɪrz tu bi ə ˈʃɔrtəʤ ʌv frɛʃ ˈvɛʤtəbəlz æt ðə ˈɡroʊsəri stɔr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There appears to be a leak in the roof</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parece haber una gotera en el techo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ðɛr əˈpɪrz tu bi ə lik ɪn ðə ruf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There appears to be a delay in the delivery of our order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parece haber un retraso en la entrega de nuestro pedido.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ðɛr əˈpɪrz tu bi ə dɪˈleɪ ɪn ðə dɪˈlɪvəri ʌv ˈaʊər ˈɔrdər</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There appears to be a discrepancy in the financial records</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parece haber una discrepancia en los registros financieros.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ðɛr əˈpɪrz tu bi ə dɪˈskrɛpənsi ɪn ðə fəˈnænʃəl rəˈkɔrdz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There appears to be a growing interest in renewable energy sources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parece haber un interés creciente por las fuentes de energía renovables</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ðɛr əˈpɪrz tu bi ə ˈɡroʊɪŋ ˈɪntrəst ɪn riˈnuəbəl ˈɛnərʤi ˈsɔrsəz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There appears to be a connection between these two events</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parece haber una conexión entre estos dos eventos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ðɛr əˈpɪrz tu bi ə kəˈnɛkʃən bɪˈtwin ðiz tu ɪˈvɛnts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There appears to be a pattern emerging in the data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parece haber un patrón emergente en los datos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ðɛr əˈpɪrz tu bi ə ˈpætərn ɪˈmɜrʤɪŋ ɪn ðə ˈdeɪtə</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There appears to be a lack of communication within the team</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parece haber una falta de comunicación dentro del equipo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ðɛr əˈpɪrz tu bi ə læk ʌv kəmˌjunəˈkeɪʃən wɪˈðɪn ðə tim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There appears to be a shift in consumer preferences towards online shopping</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parece haber un cambio en las preferencias de los consumidores hacia las compras online</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ðɛr əˈpɪrz tu bi ə ʃɪft ɪn kənˈsumər ˈprɛfərənsɪz təˈwɔrdz ˈɔnˌlaɪn ˈʃɑpɪŋ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There appears to be a need for more affordable housing in the city</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parece haber una necesidad de viviendas más asequibles en la ciudad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ðɛr əˈpɪrz tu bi ə nid fɔr mɔr əˈfɔrdəbəl ˈhaʊzɪŋ ɪn ðə ˈsɪti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There appears to be a link between diet and overall health</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parece haber un vínculo entre la dieta y la salud en general</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ðɛr əˈpɪrz tu bi ə lɪŋk bɪˈtwin ˈdaɪət ænd ˈoʊvəˌrɔl hɛlθ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There appears to be a strong correlation between exercise and weight loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parece haber una fuerte correlación entre el ejercicio y la pérdida de peso.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ðɛr əˈpɪrz tu bi ə strɔŋ ˌkɔrəˈleɪʃən bɪˈtwin ˈɛksərˌsaɪz ænd weɪt lɔs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There appears to be a general consensus among the participants</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parece haber un consenso general entre los participantes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ðɛr əˈpɪrz tu bi ə ˈʤɛnərəl kənˈsɛnsəs əˈmʌŋ ðə pɑrˈtɪsəpənts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There seems to be</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ðɛr simz tu bi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There seems to be a problem with the computer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parece haber un problema con la computadora.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ðɛr simz tu bi ə ˈprɑbləm wɪð ðə kəmˈpjutər</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There seems to be a misunderstanding between them</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parece haber un malentendido entre ellos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ðɛr simz tu bi ə ˌmɪsəndərˈstændɪŋ bɪˈtwin ðɛm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There seems to be a shortage of food in the pantry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parece que falta comida en la despensa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ðɛr simz tu bi ə ˈʃɔrtəʤ ʌv fud ɪn ðə ˈpæntri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There seems to be a delay in the delivery of our package</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parece haber un retraso en la entrega de nuestro paquete.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ðɛr simz tu bi ə dɪˈleɪ ɪn ðə dɪˈlɪvəri ʌv ˈaʊər ˈpækəʤ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There seems to be a lot of traffic on the road today</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parece que hoy hay mucho tráfico en la carretera.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ðɛr simz tu bi ə lɑt ʌv ˈtræfɪk ɑn ðə roʊd təˈdeɪ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There seems to be a leak in the roof</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ðɛr simz tu bi ə lik ɪn ðə ruf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There seems to be a change in his attitude recently</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parece haber un cambio en su actitud recientemente.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ðɛr simz tu bi ə ʧeɪnʤ ɪn hɪz ˈætəˌtud ˈrisəntli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There seems to be a pattern in their behavior</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parece haber un patrón en su comportamiento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ðɛr simz tu bi ə ˈpætərn ɪn ðɛr bɪˈheɪvjər</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There seems to be a lack of communication in the team</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parece haber una falta de comunicación en el equipo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ðɛr simz tu bi ə læk ʌv kəmˌjunəˈkeɪʃən ɪn ðə tim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There seems to be a consensus among the experts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parece haber consenso entre los expertos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ðɛr simz tu bi ə kənˈsɛnsəs əˈmʌŋ ði ˈɛkspərts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There seems to be a strong connection between these two variables</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parece haber una fuerte conexión entre estas dos variables.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ðɛr simz tu bi ə strɔŋ kəˈnɛkʃən bɪˈtwin ðiz tu ˈvɛriəbəlz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There seems to be a growing interest in the topic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parece haber un creciente interés en el tema.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ðɛr simz tu bi ə ˈɡroʊɪŋ ˈɪntrəst ɪn ðə ˈtɑpɪk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There seems to be a discrepancy in the reports</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parece haber una discrepancia en los informes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ðɛr simz tu bi ə dɪˈskrɛpənsi ɪn ðə rɪˈpɔrts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There seems to be a problem with the plumbing in the bathroom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parece haber un problema con las tuberías del baño.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ðɛr simz tu bi ə ˈprɑbləm wɪð ðə ˈplʌmɪŋ ɪn ðə ˈbæˌθrum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There seems to be a shift in public opinion on this issue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parece haber un cambio en la opinión pública sobre este tema.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ðɛr simz tu bi ə ʃɪft ɪn ˈpʌblɪk əˈpɪnjən ɑn ðɪs ˈɪʃu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There seems to have been </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parece que hubo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ðɛr simz tu hæv bɪn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There seems to have been a misunderstanding between them</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parece que hubo un malentendido entre ellos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ðɛr simz tu hæv bɪn ə ˌmɪsəndərˈstændɪŋ bɪˈtwin ðɛm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There seems to have been a significant increase in crime in the neighborhood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parece haber habido un aumento significativo de la delincuencia en el barrio.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ðɛr simz tu hæv bɪn ə səɡˈnɪfɪkənt ˈɪnˌkris ɪn kraɪm ɪn ðə ˈneɪbərˌhʊd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There seems to have been a problem with the delivery of your package</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parece haber habido un problema con la entrega de su paquete.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ðɛr simz tu hæv bɪn ə ˈprɑbləm wɪð ðə dɪˈlɪvəri ʌv jʊər ˈpækəʤ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There seems to have been a mistake in the calculations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parece haber habido un error en los cálculos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ðɛr simz tu hæv bɪn ə mɪsˈteɪk ɪn ðə ˌkælkjəˈleɪʃənz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There seems to have been a change in the company's policies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parece haber habido un cambio en las políticas de la empresa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ðɛr simz tu hæv bɪn ə ʧeɪnʤ ɪn ðə ˈkʌmpəniz ˈpɑləsiz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There seems to have been a delay in the project's timeline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parece haber habido un retraso en el cronograma del proyecto.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ðɛr simz tu hæv bɪn ə dɪˈleɪ ɪn ðə ˈprɑʤɛkts ˈtaɪmlaɪn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There seems to have been a decline in the quality of the product</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parece haber habido una disminución en la calidad del producto.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ðɛr simz tu hæv bɪn ə dɪˈklaɪn ɪn ðə ˈkwɑləti ʌv ðə ˈprɑdəkt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There seems to have been a shift in public opinion on the issue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parece haber habido un cambio en la opinión pública sobre el tema.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ðɛr simz tu hæv bɪn ə ʃɪft ɪn ˈpʌblɪk əˈpɪnjən ɑn ði ˈɪʃu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There seems to have been a decrease in the availability of affordable housing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parece haber habido una disminución en la disponibilidad de viviendas asequibles.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ðɛr simz tu hæv bɪn ə ˈdiˌkris ɪn ði əˌveɪləˈbɪləti ʌv əˈfɔrdəbəl ˈhaʊzɪŋ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There seems to have been a rise in environmental awareness among young people</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parece haber habido un aumento en la conciencia ambiental entre los jóvenes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ðɛr simz tu hæv bɪn ə raɪz ɪn ɪnˌvaɪrənˈmɛntəl əˈwɛrnəs əˈmʌŋ jʌŋ ˈpipəl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There seems to have been a misunderstanding regarding the meeting time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parece haber habido un malentendido con respecto a la hora de la reunión.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ðɛr simz tu hæv bɪn ə ˌmɪsəndərˈstændɪŋ rəˈɡɑrdɪŋ ðə ˈmitɪŋ taɪm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There seems to have been a shift in consumer preferences towards healthier food options</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parece haber habido un cambio en las preferencias de los consumidores hacia opciones de alimentos más saludables.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ðɛr simz tu hæv bɪn ə ʃɪft ɪn kənˈsumər ˈprɛfərənsɪz təˈwɔrdz ˈhɛlθiər fud ˈɑpʃənz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There seems to have been a reduction in government funding for education</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parece haber habido una reducción en la financiación gubernamental para la educación.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ðɛr simz tu hæv bɪn ə rəˈdʌkʃən ɪn ˈɡʌvərmənt ˈfʌndɪŋ fɔr ˌɛʤəˈkeɪʃən</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There seems to have been a surge in interest in renewable energy sources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parece haber habido un aumento en el interés por las fuentes de energía renovables.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ðɛr simz tu hæv bɪn ə sɜrʤ ɪn ˈɪntrəst ɪn riˈnuəbəl ˈɛnərʤi ˈsɔrsəz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There seems to have been a resurgence of interest in vintage fashion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parece haber habido un resurgimiento del interés por la moda vintage.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ðɛr simz tu hæv bɪn ə riˈsɜrʤəns ʌv ˈɪntrəst ɪn ˈvɪntɪʤ ˈfæʃən</t>
   </si>
 </sst>
 </file>
@@ -1382,7 +2164,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1403,6 +2185,11 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1447,13 +2234,29 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1579,10 +2382,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:F96"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C26" activeCellId="0" sqref="C26"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A50" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F94" activeCellId="0" sqref="F94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1596,366 +2399,1350 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="F73" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="F77" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="F78" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="F79" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="F80" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="F82" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="F84" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="F85" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="F86" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="F87" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="F88" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="F90" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="F92" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F93" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="F95" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="F96" s="3" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:D15"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="57.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="65.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="27.03"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="56.88"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>447</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -1968,182 +3755,916 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:F64"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D47" activeCellId="0" sqref="D47"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A6" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F67" activeCellId="0" sqref="F67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="45.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="44.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="54.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="47.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="57.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="69.99"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>286</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>48</v>
+        <v>289</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>49</v>
+        <v>290</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>291</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>51</v>
+        <v>292</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>52</v>
+        <v>293</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>294</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>54</v>
+        <v>295</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>55</v>
+        <v>296</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>297</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>57</v>
+        <v>298</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>58</v>
+        <v>299</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>300</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>60</v>
+        <v>301</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>61</v>
+        <v>302</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>303</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>63</v>
+        <v>304</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>64</v>
+        <v>305</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>306</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>66</v>
+        <v>307</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>67</v>
+        <v>308</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>309</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>69</v>
+        <v>310</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>70</v>
+        <v>311</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>312</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>72</v>
+        <v>313</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>73</v>
+        <v>314</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>315</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>75</v>
+        <v>316</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>76</v>
+        <v>317</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>318</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>78</v>
+        <v>319</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>79</v>
+        <v>320</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>321</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>81</v>
+        <v>322</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>82</v>
+        <v>323</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>324</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>84</v>
+        <v>325</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>85</v>
+        <v>326</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>327</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>87</v>
+        <v>328</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>88</v>
+        <v>329</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>89</v>
+        <v>330</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -2162,1346 +4683,1123 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:F80"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D46" activeCellId="0" sqref="D46"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A27" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F83" activeCellId="0" sqref="F83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="44.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="75.32"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:D15"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D43" activeCellId="0" sqref="D43"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="57.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="61.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="69.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="79.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="65.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="27.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="63.25"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>136</v>
+        <v>474</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>475</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>137</v>
+        <v>476</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>138</v>
+        <v>477</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>139</v>
+        <v>478</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>140</v>
+        <v>479</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>141</v>
+        <v>480</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>142</v>
+        <v>481</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>143</v>
+        <v>482</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>144</v>
+        <v>483</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>145</v>
+        <v>484</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>146</v>
+        <v>485</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>147</v>
+        <v>486</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>148</v>
+        <v>487</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>149</v>
+        <v>488</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>150</v>
+        <v>489</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>151</v>
+        <v>490</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>152</v>
+        <v>491</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>153</v>
+        <v>492</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>154</v>
+        <v>493</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>155</v>
+        <v>494</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>156</v>
+        <v>495</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>157</v>
+        <v>496</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>158</v>
+        <v>497</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>159</v>
+        <v>498</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>160</v>
+        <v>499</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>161</v>
+        <v>500</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>162</v>
+        <v>501</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>163</v>
+        <v>502</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>164</v>
+        <v>503</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>165</v>
+        <v>504</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>166</v>
+        <v>505</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>167</v>
+        <v>506</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>168</v>
+        <v>507</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>169</v>
+        <v>508</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>170</v>
+        <v>509</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>171</v>
+        <v>510</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>172</v>
+        <v>511</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>173</v>
+        <v>512</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>174</v>
+        <v>513</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>175</v>
+        <v>514</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>176</v>
+        <v>515</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>177</v>
+        <v>516</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>178</v>
+        <v>517</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:D15"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B30" activeCellId="0" sqref="B30"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="51.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="71.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="66.22"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>224</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:D15"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D38" activeCellId="0" sqref="D38"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="40.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="55.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="61.38"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:D15"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="47.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="57.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="69.99"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>314</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:D15"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D37" activeCellId="0" sqref="D37"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="50.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="59.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="78.84"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>357</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:D15"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="70.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="66.35"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>402</v>
+        <v>518</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="4" t="s">
+        <v>522</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="4" t="s">
+        <v>569</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="4" t="s">
+        <v>617</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="4" t="s">
+        <v>663</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>667</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>670</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>673</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>676</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>679</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>682</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>685</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>688</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="F73" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>691</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>694</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>697</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>700</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="F77" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>703</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="F78" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>706</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="F79" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>709</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="F80" s="3" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
